--- a/data/trans_dic/P78_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Habitat-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,19; 100,0</t>
+          <t>57,44; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>36,22; 59,56</t>
+          <t>34,78; 58,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>45,55; 67,66</t>
+          <t>45,56; 67,49</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>57,75; 87,03</t>
+          <t>57,64; 86,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>52,86; 63,2</t>
+          <t>52,99; 62,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>56,03; 66,18</t>
+          <t>56,19; 66,29</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,22; 85,23</t>
+          <t>66,17; 85,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,32; 63,56</t>
+          <t>54,99; 63,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>60,1; 67,46</t>
+          <t>60,3; 68,09</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>59,5; 83,01</t>
+          <t>60,16; 83,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,61; 62,9</t>
+          <t>20,86; 62,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,55; 65,91</t>
+          <t>28,01; 66,33</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>64,99; 84,46</t>
+          <t>63,75; 83,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,79; 59,48</t>
+          <t>50,62; 59,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>55,51; 63,87</t>
+          <t>55,63; 64,22</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>70,26; 81,19</t>
+          <t>70,46; 80,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>42,09; 58,32</t>
+          <t>42,58; 58,34</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>49,88; 63,0</t>
+          <t>49,45; 62,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P78_2023-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P78_2023-Habitat-trans_dic.xlsx
@@ -546,7 +546,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
